--- a/stimuli/specificity/specificity_material.xlsx
+++ b/stimuli/specificity/specificity_material.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="877">
   <si>
     <t>Picture</t>
   </si>
@@ -1637,9 +1637,6 @@
     <t>bread</t>
   </si>
   <si>
-    <t>french</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
@@ -2534,9 +2531,6 @@
     <t>diving</t>
   </si>
   <si>
-    <t>largest</t>
-  </si>
-  <si>
     <t>waddling</t>
   </si>
   <si>
@@ -2555,9 +2549,6 @@
     <t>seat</t>
   </si>
   <si>
-    <t>steat</t>
-  </si>
-  <si>
     <t>backless</t>
   </si>
   <si>
@@ -2621,9 +2612,6 @@
     <t>mansion</t>
   </si>
   <si>
-    <t>kerneled</t>
-  </si>
-  <si>
     <t>agricultural</t>
   </si>
   <si>
@@ -2648,9 +2636,6 @@
     <t>tall</t>
   </si>
   <si>
-    <t>mammel</t>
-  </si>
-  <si>
     <t>poultry</t>
   </si>
   <si>
@@ -2676,6 +2661,15 @@
   </si>
   <si>
     <t>cabin</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>kernelled</t>
   </si>
 </sst>
 </file>
@@ -3258,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,87 +3263,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>758</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>759</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>761</v>
-      </c>
       <c r="E1" s="36" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>806</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>688</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>807</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>689</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>808</v>
-      </c>
       <c r="D2" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="38" t="s">
+        <v>769</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>771</v>
-      </c>
       <c r="E3" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>714</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>715</v>
-      </c>
       <c r="E4" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3357,7 +3351,7 @@
         <v>514</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>522</v>
@@ -3367,7 +3361,7 @@
         <v>bird</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3378,13 +3372,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>514</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3395,13 +3389,13 @@
         <v>81</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>831</v>
+        <v>543</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>514</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,17 +3403,17 @@
         <v>514</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>755</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>756</v>
       </c>
       <c r="D9" s="36" t="str">
         <f>A9</f>
         <v>bird</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3430,13 +3424,13 @@
         <v>78</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>514</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,7 +3447,7 @@
         <v>514</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3464,36 +3458,36 @@
         <v>76</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>514</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>747</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>748</v>
-      </c>
       <c r="C13" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D13" s="36" t="str">
         <f>A13</f>
         <v>boat</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>87</v>
@@ -3502,10 +3496,10 @@
         <v>508</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3522,7 +3516,7 @@
         <v>516</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3533,120 +3527,120 @@
         <v>44</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>531</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>233</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D17" s="36" t="str">
         <f>A17</f>
         <v>building</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>733</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>734</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>735</v>
       </c>
       <c r="D18" s="36" t="str">
         <f>A18</f>
         <v>building</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>732</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>733</v>
       </c>
       <c r="D19" s="36" t="str">
         <f>A19</f>
         <v>building</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>736</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>737</v>
       </c>
       <c r="D20" s="36" t="str">
         <f>A20</f>
         <v>building</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D21" s="36" t="str">
         <f>A21</f>
         <v>building</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>509</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3654,16 +3648,16 @@
         <v>240</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>240</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,17 +3665,17 @@
         <v>240</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D24" s="36" t="str">
         <f>A24</f>
         <v>car</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3692,13 +3686,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>515</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3709,13 +3703,13 @@
         <v>10</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>515</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3726,13 +3720,13 @@
         <v>194</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>515</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,81 +3737,81 @@
         <v>9</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>515</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B31" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>662</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>663</v>
-      </c>
       <c r="D31" s="36" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3825,21 +3819,21 @@
         <v>354</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>354</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>321</v>
@@ -3848,96 +3842,96 @@
         <v>506</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>815</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="C35" s="36" t="s">
         <v>816</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>817</v>
-      </c>
       <c r="D35" s="36" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>820</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="C36" s="36" t="s">
         <v>821</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>822</v>
-      </c>
       <c r="D36" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>507</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
+        <v>808</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>809</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="C38" s="36" t="s">
         <v>810</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>811</v>
-      </c>
       <c r="D38" s="36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B39" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>768</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>769</v>
       </c>
       <c r="D39" s="36" t="str">
         <f>A39</f>
         <v>dish</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,16 +3939,16 @@
         <v>513</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>203</v>
+        <v>874</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>513</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,16 +3956,16 @@
         <v>513</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>3</v>
+        <v>875</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>513</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3982,13 +3976,13 @@
         <v>195</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>513</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3996,16 +3990,16 @@
         <v>377</v>
       </c>
       <c r="B43" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="C43" s="36" t="s">
         <v>826</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>827</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>377</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4016,13 +4010,13 @@
         <v>196</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>356</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,7 +4033,7 @@
         <v>528</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,25 +4050,25 @@
         <v>528</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="B47" s="36" t="s">
         <v>765</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="C47" s="36" t="s">
         <v>766</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>767</v>
       </c>
       <c r="D47" s="36" t="str">
         <f>A47</f>
         <v>food</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,7 +4076,7 @@
         <v>523</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C48" s="36" t="s">
         <v>530</v>
@@ -4091,7 +4085,7 @@
         <v>523</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4108,7 +4102,7 @@
         <v>523</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4116,17 +4110,17 @@
         <v>523</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D50" s="36" t="str">
         <f>A50</f>
         <v>fruit</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4134,17 +4128,17 @@
         <v>523</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D51" s="36" t="str">
         <f>A51</f>
         <v>fruit</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4152,259 +4146,259 @@
         <v>523</v>
       </c>
       <c r="B52" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="C52" s="36" t="s">
         <v>744</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>745</v>
       </c>
       <c r="D52" s="36" t="str">
         <f>A52</f>
         <v>fruit</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>523</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>236</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D54" s="36" t="str">
         <f>A54</f>
         <v>garment</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B55" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="C55" s="36" t="s">
         <v>709</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>710</v>
-      </c>
       <c r="D55" s="36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C56" s="36" t="s">
         <v>522</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="B57" s="36" t="s">
         <v>707</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>708</v>
-      </c>
       <c r="C57" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C58" s="36" t="s">
         <v>512</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B59" s="36" t="s">
         <v>197</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>278</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B61" s="37" t="s">
         <v>223</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D61" s="36" t="str">
         <f>A61</f>
         <v>horse</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D63" s="36" t="str">
         <f>A63</f>
         <v>illness</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="C64" s="36" t="s">
         <v>723</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>722</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>724</v>
       </c>
       <c r="D64" s="36" t="str">
         <f>A64</f>
         <v>institution</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B65" s="36" t="s">
         <v>211</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4421,143 +4415,143 @@
         <v>379</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B68" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B72" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B73" s="36" t="s">
         <v>207</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B74" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>869</v>
+        <v>702</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
+        <v>782</v>
+      </c>
+      <c r="B75" s="36" t="s">
         <v>783</v>
       </c>
-      <c r="B75" s="36" t="s">
-        <v>784</v>
-      </c>
       <c r="C75" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4565,245 +4559,245 @@
         <v>362</v>
       </c>
       <c r="B76" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="C76" s="36" t="s">
         <v>725</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>726</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>362</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="C77" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="B77" s="38" t="s">
-        <v>776</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>775</v>
-      </c>
       <c r="D77" s="36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="B78" s="36" t="s">
         <v>823</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="C78" s="36" t="s">
         <v>824</v>
       </c>
-      <c r="C78" s="36" t="s">
-        <v>825</v>
-      </c>
       <c r="D78" s="36" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="C79" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="B79" s="36" t="s">
-        <v>696</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>819</v>
-      </c>
       <c r="D79" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
+        <v>793</v>
+      </c>
+      <c r="B80" s="36" t="s">
         <v>794</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="C80" s="36" t="s">
         <v>795</v>
       </c>
-      <c r="C80" s="36" t="s">
-        <v>796</v>
-      </c>
       <c r="D80" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="B81" s="36" t="s">
         <v>812</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="C81" s="36" t="s">
         <v>813</v>
       </c>
-      <c r="C81" s="36" t="s">
-        <v>814</v>
-      </c>
       <c r="D81" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B82" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B83" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
+        <v>802</v>
+      </c>
+      <c r="B84" s="36" t="s">
         <v>803</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="C84" s="36" t="s">
         <v>804</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>805</v>
-      </c>
       <c r="D84" s="36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
+        <v>787</v>
+      </c>
+      <c r="B85" s="36" t="s">
         <v>788</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="C85" s="36" t="s">
         <v>789</v>
       </c>
-      <c r="C85" s="36" t="s">
-        <v>790</v>
-      </c>
       <c r="D85" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E85" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B86" s="38" t="s">
         <v>73</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>63</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
+        <v>790</v>
+      </c>
+      <c r="B88" s="36" t="s">
         <v>791</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="C88" s="36" t="s">
         <v>792</v>
       </c>
-      <c r="C88" s="36" t="s">
-        <v>793</v>
-      </c>
       <c r="D88" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="B89" s="36" t="s">
         <v>800</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="C89" s="36" t="s">
         <v>801</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>802</v>
-      </c>
       <c r="D89" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C90" s="36" t="s">
         <v>200</v>
@@ -4813,7 +4807,7 @@
         <v>sauce</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,38 +4815,38 @@
         <v>286</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D91" s="36" t="s">
         <v>286</v>
       </c>
       <c r="E91" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B92" s="36" t="s">
         <v>291</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B93" s="36" t="s">
         <v>22</v>
@@ -4861,10 +4855,10 @@
         <v>509</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E93" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4881,92 +4875,92 @@
         <v>383</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B95" s="36" t="s">
         <v>287</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="B96" s="36" t="s">
         <v>785</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="C96" s="36" t="s">
         <v>786</v>
       </c>
-      <c r="C96" s="36" t="s">
-        <v>787</v>
-      </c>
       <c r="D96" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C97" s="36" t="s">
         <v>780</v>
       </c>
-      <c r="B97" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>781</v>
-      </c>
       <c r="D97" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E98" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
+        <v>776</v>
+      </c>
+      <c r="B99" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="C99" s="36" t="s">
         <v>778</v>
       </c>
-      <c r="C99" s="36" t="s">
-        <v>779</v>
-      </c>
       <c r="D99" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4977,13 +4971,13 @@
         <v>24</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D100" s="36" t="s">
         <v>517</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5000,7 +4994,7 @@
         <v>517</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5011,30 +5005,30 @@
         <v>26</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D102" s="36" t="s">
         <v>517</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B103" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5051,7 +5045,7 @@
         <v>520</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5059,17 +5053,17 @@
         <v>520</v>
       </c>
       <c r="B105" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="C105" s="36" t="s">
         <v>727</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>728</v>
       </c>
       <c r="D105" s="36" t="str">
         <f>A105</f>
         <v>tree</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5086,7 +5080,7 @@
         <v>518</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5097,13 +5091,13 @@
         <v>32</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D107" s="36" t="s">
         <v>519</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5120,7 +5114,7 @@
         <v>519</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5128,17 +5122,17 @@
         <v>519</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="D109" s="36" t="str">
         <f>A109</f>
         <v>vegetable</v>
       </c>
       <c r="E109" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5149,14 +5143,14 @@
         <v>279</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D110" s="36" t="str">
         <f>A110</f>
         <v>vegetable</v>
       </c>
       <c r="E110" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5173,7 +5167,7 @@
         <v>519</v>
       </c>
       <c r="E111" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5184,13 +5178,13 @@
         <v>206</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D112" s="36" t="s">
         <v>519</v>
       </c>
       <c r="E112" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -5198,7 +5192,7 @@
         <v>519</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C113" s="36" t="s">
         <v>212</v>
@@ -5208,148 +5202,148 @@
         <v>vegetable</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D114" s="36" t="str">
         <f>A114</f>
         <v>vehicle</v>
       </c>
       <c r="E114" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B115" s="36" t="s">
+        <v>748</v>
+      </c>
+      <c r="C115" s="36" t="s">
         <v>749</v>
-      </c>
-      <c r="C115" s="36" t="s">
-        <v>750</v>
       </c>
       <c r="D115" s="36" t="str">
         <f>A115</f>
         <v>vehicle</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B116" s="36" t="s">
         <v>94</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D116" s="36" t="str">
         <f>A116</f>
         <v>vehicle</v>
       </c>
       <c r="E116" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B117" s="38" t="s">
         <v>92</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E117" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B118" s="36" t="s">
+        <v>752</v>
+      </c>
+      <c r="C118" s="36" t="s">
         <v>753</v>
-      </c>
-      <c r="C118" s="36" t="s">
-        <v>754</v>
       </c>
       <c r="D118" s="36" t="str">
         <f>A118</f>
         <v>vehicle</v>
       </c>
       <c r="E118" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B119" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D119" s="36" t="str">
         <f>A119</f>
         <v>vehicle</v>
       </c>
       <c r="E119" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="B120" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="B120" s="36" t="s">
+      <c r="C120" s="36" t="s">
         <v>798</v>
       </c>
-      <c r="C120" s="36" t="s">
-        <v>799</v>
-      </c>
       <c r="D120" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E120" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C121" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D121" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E121" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -9433,18 +9427,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
         <v>550</v>
-      </c>
-      <c r="B1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" t="s">
         <v>552</v>
-      </c>
-      <c r="B2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9454,21 +9448,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" t="s">
         <v>554</v>
-      </c>
-      <c r="B4" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" t="s">
         <v>556</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>557</v>
-      </c>
-      <c r="C5" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,7 +9475,7 @@
         <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9491,10 +9485,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" t="s">
         <v>560</v>
-      </c>
-      <c r="B9" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9504,26 +9498,26 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" t="s">
         <v>562</v>
-      </c>
-      <c r="B11" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" t="s">
         <v>564</v>
-      </c>
-      <c r="B12" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" t="s">
         <v>566</v>
-      </c>
-      <c r="B13" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9538,7 +9532,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B16" t="s">
         <v>263</v>
@@ -9546,7 +9540,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s">
         <v>294</v>
@@ -9557,7 +9551,7 @@
         <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C18" t="s">
         <v>264</v>
@@ -9576,7 +9570,7 @@
         <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9589,7 +9583,7 @@
         <v>415</v>
       </c>
       <c r="B22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9599,26 +9593,26 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="B24" t="s">
         <v>573</v>
-      </c>
-      <c r="B24" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" t="s">
         <v>575</v>
-      </c>
-      <c r="B25" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="B26" t="s">
         <v>577</v>
-      </c>
-      <c r="B26" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9626,15 +9620,15 @@
         <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="B28" t="s">
         <v>580</v>
-      </c>
-      <c r="B28" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9659,10 +9653,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="B33" t="s">
         <v>582</v>
-      </c>
-      <c r="B33" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9692,18 +9686,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="B39" t="s">
         <v>584</v>
-      </c>
-      <c r="B39" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="B40" t="s">
         <v>586</v>
-      </c>
-      <c r="B40" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9713,21 +9707,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="B42" t="s">
         <v>588</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>589</v>
-      </c>
-      <c r="C42" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="B43" t="s">
         <v>591</v>
-      </c>
-      <c r="B43" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9742,10 +9736,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="B46" t="s">
         <v>593</v>
-      </c>
-      <c r="B46" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9793,18 +9787,18 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B55" t="s">
         <v>595</v>
-      </c>
-      <c r="B55" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B56" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -9849,15 +9843,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B65" t="s">
         <v>598</v>
-      </c>
-      <c r="B65" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B66" t="s">
         <v>291</v>
@@ -9885,10 +9879,10 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B71" t="s">
         <v>601</v>
-      </c>
-      <c r="B71" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -9913,18 +9907,18 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B77" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -9974,34 +9968,34 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B87" t="s">
         <v>605</v>
-      </c>
-      <c r="B87" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B88" t="s">
         <v>607</v>
-      </c>
-      <c r="B88" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B89" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B90" t="s">
         <v>610</v>
-      </c>
-      <c r="B90" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10016,10 +10010,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B93" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -10044,10 +10038,10 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B98" t="s">
         <v>613</v>
-      </c>
-      <c r="B98" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10062,18 +10056,18 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B101" t="s">
         <v>598</v>
-      </c>
-      <c r="B101" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B102" t="s">
         <v>615</v>
-      </c>
-      <c r="B102" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -10088,7 +10082,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B105" t="s">
         <v>257</v>
@@ -10106,10 +10100,10 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B108" t="s">
         <v>618</v>
-      </c>
-      <c r="B108" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -10129,7 +10123,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B112" t="s">
         <v>202</v>
@@ -10147,10 +10141,10 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="B115" t="s">
         <v>621</v>
-      </c>
-      <c r="B115" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -10163,7 +10157,7 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -10176,7 +10170,7 @@
         <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -10191,10 +10185,10 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="B122" t="s">
         <v>624</v>
-      </c>
-      <c r="B122" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -10234,26 +10228,26 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B130" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="B131" t="s">
         <v>627</v>
-      </c>
-      <c r="B131" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B132" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -10288,26 +10282,26 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B139" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B140" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B141" t="s">
         <v>632</v>
-      </c>
-      <c r="B141" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -10315,31 +10309,31 @@
         <v>380</v>
       </c>
       <c r="B142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B143" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B144" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B145" t="s">
         <v>601</v>
-      </c>
-      <c r="B145" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -10354,7 +10348,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B148" t="s">
         <v>294</v>
@@ -10362,18 +10356,18 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B149" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B150" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -10388,13 +10382,13 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B153" t="s">
+        <v>639</v>
+      </c>
+      <c r="C153" t="s">
         <v>640</v>
-      </c>
-      <c r="C153" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -10419,26 +10413,26 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B158" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="B159" t="s">
         <v>643</v>
-      </c>
-      <c r="B159" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B160" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -10468,10 +10462,10 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B166" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -10486,18 +10480,18 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B169" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B170" t="s">
         <v>582</v>
-      </c>
-      <c r="B170" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -10540,7 +10534,7 @@
         <v>380</v>
       </c>
       <c r="B178" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -10570,18 +10564,18 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B184" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B185" t="s">
         <v>649</v>
-      </c>
-      <c r="B185" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -10614,7 +10608,7 @@
         <v>68</v>
       </c>
       <c r="B191" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -10679,26 +10673,26 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="B204" t="s">
         <v>652</v>
-      </c>
-      <c r="B204" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B205" t="s">
         <v>591</v>
-      </c>
-      <c r="B205" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B206" t="s">
         <v>593</v>
-      </c>
-      <c r="B206" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -10728,21 +10722,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B212" t="s">
+        <v>653</v>
+      </c>
+      <c r="C212" t="s">
         <v>654</v>
-      </c>
-      <c r="C212" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B213" t="s">
         <v>610</v>
-      </c>
-      <c r="B213" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -10762,10 +10756,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="B217" t="s">
         <v>632</v>
-      </c>
-      <c r="B217" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -10780,10 +10774,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B220" t="s">
         <v>577</v>
-      </c>
-      <c r="B220" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -10841,7 +10835,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B231" t="s">
         <v>264</v>
@@ -10859,10 +10853,10 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B234" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -10935,10 +10929,10 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B248" t="s">
         <v>657</v>
-      </c>
-      <c r="B248" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -10968,10 +10962,10 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B254" t="s">
         <v>615</v>
-      </c>
-      <c r="B254" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -10979,15 +10973,15 @@
         <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B256" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -11002,10 +10996,10 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B259" t="s">
         <v>615</v>
-      </c>
-      <c r="B259" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -11020,10 +11014,10 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="B262" t="s">
         <v>649</v>
-      </c>
-      <c r="B262" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -11063,10 +11057,10 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="B270" t="s">
         <v>657</v>
-      </c>
-      <c r="B270" t="s">
-        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -11086,10 +11080,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>262</v>
@@ -11107,7 +11101,7 @@
         <v>267</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>210</v>
@@ -11120,7 +11114,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>256</v>
@@ -11132,24 +11126,24 @@
         <v>280</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>520</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -11157,7 +11151,7 @@
         <v>231</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>250</v>
@@ -11183,7 +11177,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11191,16 +11185,16 @@
         <v>241</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>257</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -11214,10 +11208,10 @@
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11225,19 +11219,19 @@
         <v>217</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36" t="s">
@@ -11253,12 +11247,12 @@
         <v>297</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>272</v>
@@ -11287,12 +11281,12 @@
         <v>298</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>275</v>
@@ -11307,13 +11301,13 @@
         <v>261</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>286</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>247</v>
@@ -11322,10 +11316,10 @@
         <v>520</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11339,7 +11333,7 @@
         <v>238</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>261</v>
@@ -11357,13 +11351,13 @@
         <v>202</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K8" s="36" t="s">
         <v>299</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11374,7 +11368,7 @@
         <v>209</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>29</v>
@@ -11384,10 +11378,10 @@
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36" t="s">
@@ -11397,7 +11391,7 @@
         <v>224</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11405,7 +11399,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -11423,13 +11417,13 @@
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -11452,20 +11446,20 @@
         <v>273</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -11473,10 +11467,10 @@
         <v>271</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>249</v>
@@ -11489,19 +11483,19 @@
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I12" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>677</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>685</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>679</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>678</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -11509,7 +11503,7 @@
         <v>251</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>264</v>
@@ -11521,25 +11515,25 @@
         <v>302</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G13" s="36" t="s">
+        <v>679</v>
+      </c>
+      <c r="H13" s="36" t="s">
         <v>680</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="I13" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="J13" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="K13" s="36" t="s">
         <v>683</v>
       </c>
-      <c r="K13" s="36" t="s">
-        <v>684</v>
-      </c>
       <c r="L13" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -11556,28 +11550,28 @@
         <v>303</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F14" s="36" t="s">
+        <v>677</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="H14" s="36" t="s">
         <v>679</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="I14" s="36" t="s">
         <v>680</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="J14" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="K14" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="L14" s="36" t="s">
         <v>683</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -11585,37 +11579,37 @@
         <v>260</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="D15" s="36" t="s">
         <v>694</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>695</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>471</v>
       </c>
       <c r="F15" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>697</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="H15" s="36" t="s">
         <v>698</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="I15" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="J15" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="K15" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="L15" s="36" t="s">
         <v>701</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>686</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>702</v>
       </c>
     </row>
   </sheetData>
